--- a/results/pidis0/sim/pvdis-had-p-opt-min.xlsx
+++ b/results/pidis0/sim/pvdis-had-p-opt-min.xlsx
@@ -2994,7 +2994,7 @@
         <v>429</v>
       </c>
       <c r="M2">
-        <v>6.72503065856123e-06</v>
+        <v>-1.133119747238862e-06</v>
       </c>
       <c r="N2">
         <v>-5.684094732548752e-10</v>
@@ -4280,7 +4280,7 @@
         <v>429</v>
       </c>
       <c r="M3">
-        <v>1.671487004604276e-06</v>
+        <v>-1.654723752451261e-06</v>
       </c>
       <c r="N3">
         <v>-5.459836019542991e-10</v>
@@ -5566,7 +5566,7 @@
         <v>429</v>
       </c>
       <c r="M4">
-        <v>2.57047653727732e-06</v>
+        <v>-1.891036547798011e-07</v>
       </c>
       <c r="N4">
         <v>-9.226341157943208e-10</v>
@@ -6852,7 +6852,7 @@
         <v>429</v>
       </c>
       <c r="M5">
-        <v>9.378131260478488e-07</v>
+        <v>-1.683048567503306e-06</v>
       </c>
       <c r="N5">
         <v>-1.025780325433334e-09</v>
@@ -8138,7 +8138,7 @@
         <v>429</v>
       </c>
       <c r="M6">
-        <v>9.689552736589247e-07</v>
+        <v>-4.198001756858416e-07</v>
       </c>
       <c r="N6">
         <v>-1.182183681290693e-09</v>
@@ -9424,7 +9424,7 @@
         <v>429</v>
       </c>
       <c r="M7">
-        <v>5.357910224280977e-07</v>
+        <v>-5.369563848116205e-07</v>
       </c>
       <c r="N7">
         <v>-1.993544590075959e-09</v>
@@ -10710,7 +10710,7 @@
         <v>429</v>
       </c>
       <c r="M8">
-        <v>5.456463304965981e-07</v>
+        <v>-6.620706812703451e-07</v>
       </c>
       <c r="N8">
         <v>-3.041475666281322e-09</v>
@@ -11996,7 +11996,7 @@
         <v>429</v>
       </c>
       <c r="M9">
-        <v>9.261209598841768e-07</v>
+        <v>-3.440060193446689e-07</v>
       </c>
       <c r="N9">
         <v>-2.773461821051816e-09</v>
@@ -13282,7 +13282,7 @@
         <v>429</v>
       </c>
       <c r="M10">
-        <v>3.091528804775962e-07</v>
+        <v>-2.884508607780154e-07</v>
       </c>
       <c r="N10">
         <v>-3.427799996591499e-09</v>
@@ -14568,7 +14568,7 @@
         <v>429</v>
       </c>
       <c r="M11">
-        <v>3.142701703590889e-07</v>
+        <v>-1.517884228796495e-07</v>
       </c>
       <c r="N11">
         <v>-6.574410114990961e-09</v>
@@ -15854,7 +15854,7 @@
         <v>429</v>
       </c>
       <c r="M12">
-        <v>4.685048020598819e-07</v>
+        <v>-6.313833182657518e-07</v>
       </c>
       <c r="N12">
         <v>-1.041945494498192e-08</v>
@@ -17140,7 +17140,7 @@
         <v>429</v>
       </c>
       <c r="M13">
-        <v>9.607099692557811e-07</v>
+        <v>-7.425836119732026e-07</v>
       </c>
       <c r="N13">
         <v>-1.237958058661624e-08</v>
@@ -18426,7 +18426,7 @@
         <v>429</v>
       </c>
       <c r="M14">
-        <v>1.793427860826972e-07</v>
+        <v>-1.827347987740755e-07</v>
       </c>
       <c r="N14">
         <v>-5.532317326798498e-09</v>
@@ -19712,7 +19712,7 @@
         <v>429</v>
       </c>
       <c r="M15">
-        <v>1.831103709637765e-07</v>
+        <v>-1.033064467660999e-07</v>
       </c>
       <c r="N15">
         <v>-1.185948627071485e-08</v>
@@ -20998,7 +20998,7 @@
         <v>429</v>
       </c>
       <c r="M16">
-        <v>2.703477391323388e-07</v>
+        <v>-1.786486321974504e-07</v>
       </c>
       <c r="N16">
         <v>-2.459366109781126e-08</v>
@@ -22284,7 +22284,7 @@
         <v>429</v>
       </c>
       <c r="M17">
-        <v>4.315254278266381e-07</v>
+        <v>-3.51270114771933e-07</v>
       </c>
       <c r="N17">
         <v>-4.35308853058603e-08</v>
@@ -23570,7 +23570,7 @@
         <v>429</v>
       </c>
       <c r="M18">
-        <v>1.04284249004467e-07</v>
+        <v>-1.24339310935538e-07</v>
       </c>
       <c r="N18">
         <v>-8.670519234904065e-09</v>
@@ -24856,7 +24856,7 @@
         <v>429</v>
       </c>
       <c r="M19">
-        <v>1.072702529531674e-07</v>
+        <v>-1.108543751754484e-07</v>
       </c>
       <c r="N19">
         <v>-1.974825611414028e-08</v>
@@ -26142,7 +26142,7 @@
         <v>429</v>
       </c>
       <c r="M20">
-        <v>1.58520450450843e-07</v>
+        <v>-8.556383587512554e-08</v>
       </c>
       <c r="N20">
         <v>-4.553936240028505e-08</v>
@@ -27428,7 +27428,7 @@
         <v>429</v>
       </c>
       <c r="M21">
-        <v>2.441103002345255e-07</v>
+        <v>-6.234473493519123e-08</v>
       </c>
       <c r="N21">
         <v>-1.027689824430877e-07</v>
@@ -28714,7 +28714,7 @@
         <v>429</v>
       </c>
       <c r="M22">
-        <v>4.456031261464808e-07</v>
+        <v>-1.497066478317936e-07</v>
       </c>
       <c r="N22">
         <v>-2.250546886083395e-07</v>
@@ -30000,7 +30000,7 @@
         <v>429</v>
       </c>
       <c r="M23">
-        <v>6.036986920659255e-08</v>
+        <v>-8.322203423482831e-08</v>
       </c>
       <c r="N23">
         <v>-1.324423125573605e-08</v>
@@ -31286,7 +31286,7 @@
         <v>429</v>
       </c>
       <c r="M24">
-        <v>6.271229101735951e-08</v>
+        <v>-8.77394578443995e-08</v>
       </c>
       <c r="N24">
         <v>-3.134305793806718e-08</v>
@@ -32572,7 +32572,7 @@
         <v>429</v>
       </c>
       <c r="M25">
-        <v>9.34578839407625e-08</v>
+        <v>-9.935560832349207e-08</v>
       </c>
       <c r="N25">
         <v>-7.608651624069314e-08</v>
@@ -33858,7 +33858,7 @@
         <v>429</v>
       </c>
       <c r="M26">
-        <v>1.434928591957528e-07</v>
+        <v>-1.165460422627149e-07</v>
       </c>
       <c r="N26">
         <v>-1.875114975887574e-07</v>
@@ -35144,7 +35144,7 @@
         <v>429</v>
       </c>
       <c r="M27">
-        <v>2.304115927333273e-07</v>
+        <v>-1.366777728643991e-07</v>
       </c>
       <c r="N27">
         <v>-4.78143175688421e-07</v>
@@ -36430,7 +36430,7 @@
         <v>429</v>
       </c>
       <c r="M28">
-        <v>3.439099447647942e-08</v>
+        <v>-5.013028602978437e-08</v>
       </c>
       <c r="N28">
         <v>-1.924823549521138e-08</v>
@@ -37716,7 +37716,7 @@
         <v>429</v>
       </c>
       <c r="M29">
-        <v>3.626253498119949e-08</v>
+        <v>-5.820913150213867e-08</v>
       </c>
       <c r="N29">
         <v>-4.698521367913212e-08</v>
@@ -39002,7 +39002,7 @@
         <v>429</v>
       </c>
       <c r="M30">
-        <v>5.486996991403924e-08</v>
+        <v>-7.388686658057123e-08</v>
       </c>
       <c r="N30">
         <v>-1.176283280561421e-07</v>
@@ -40288,7 +40288,7 @@
         <v>429</v>
       </c>
       <c r="M31">
-        <v>8.485057360981333e-08</v>
+        <v>-9.852810034671203e-08</v>
       </c>
       <c r="N31">
         <v>-3.016049974812672e-07</v>
@@ -41574,7 +41574,7 @@
         <v>429</v>
       </c>
       <c r="M32">
-        <v>1.347189758720371e-07</v>
+        <v>-1.326089200934363e-07</v>
       </c>
       <c r="N32">
         <v>-8.126983857379977e-07</v>
@@ -42860,7 +42860,7 @@
         <v>429</v>
       </c>
       <c r="M33">
-        <v>2.295172039428985e-07</v>
+        <v>-1.828641101015639e-07</v>
       </c>
       <c r="N33">
         <v>-2.521863739022497e-06</v>
@@ -44146,7 +44146,7 @@
         <v>429</v>
       </c>
       <c r="M34">
-        <v>2.156833118468555e-08</v>
+        <v>-2.553687358972985e-08</v>
       </c>
       <c r="N34">
         <v>-2.579024432605786e-08</v>
@@ -45432,7 +45432,7 @@
         <v>429</v>
       </c>
       <c r="M35">
-        <v>2.067640702640182e-08</v>
+        <v>-3.231122999526409e-08</v>
       </c>
       <c r="N35">
         <v>-6.473953886200259e-08</v>
@@ -46718,7 +46718,7 @@
         <v>429</v>
       </c>
       <c r="M36">
-        <v>3.193369844355423e-08</v>
+        <v>-4.42131701517942e-08</v>
       </c>
       <c r="N36">
         <v>-1.656364735879039e-07</v>
@@ -48004,7 +48004,7 @@
         <v>429</v>
       </c>
       <c r="M37">
-        <v>5.004094344910997e-08</v>
+        <v>-6.319720117095831e-08</v>
       </c>
       <c r="N37">
         <v>-4.340631455924695e-07</v>
@@ -49290,7 +49290,7 @@
         <v>429</v>
       </c>
       <c r="M38">
-        <v>7.958610636875804e-08</v>
+        <v>-9.16266251787373e-08</v>
       </c>
       <c r="N38">
         <v>-1.193297057131826e-06</v>
@@ -50576,7 +50576,7 @@
         <v>429</v>
       </c>
       <c r="M39">
-        <v>1.30696621263266e-07</v>
+        <v>-1.353294450150819e-07</v>
       </c>
       <c r="N39">
         <v>-3.677104762888836e-06</v>
@@ -51862,7 +51862,7 @@
         <v>429</v>
       </c>
       <c r="M40">
-        <v>2.570760142179483e-07</v>
+        <v>-2.129447348150136e-07</v>
       </c>
       <c r="N40">
         <v>-1.433224029142737e-05</v>
@@ -53148,7 +53148,7 @@
         <v>429</v>
       </c>
       <c r="M41">
-        <v>1.615011307809272e-08</v>
+        <v>-1.656371737981152e-08</v>
       </c>
       <c r="N41">
         <v>-8.568347466103322e-08</v>
@@ -54434,7 +54434,7 @@
         <v>429</v>
       </c>
       <c r="M42">
-        <v>1.875096032675791e-08</v>
+        <v>-2.505680254170144e-08</v>
       </c>
       <c r="N42">
         <v>-2.303745316785482e-07</v>
@@ -55720,7 +55720,7 @@
         <v>429</v>
       </c>
       <c r="M43">
-        <v>2.984465945414077e-08</v>
+        <v>-3.909385273497982e-08</v>
       </c>
       <c r="N43">
         <v>-6.29840555225749e-07</v>
@@ -57006,7 +57006,7 @@
         <v>429</v>
       </c>
       <c r="M44">
-        <v>4.785365954968553e-08</v>
+        <v>-6.128885182964314e-08</v>
       </c>
       <c r="N44">
         <v>-1.771106525248071e-06</v>
@@ -58292,7 +58292,7 @@
         <v>429</v>
       </c>
       <c r="M45">
-        <v>7.812813455258729e-08</v>
+        <v>-9.576307926471816e-08</v>
       </c>
       <c r="N45">
         <v>-5.317071801837082e-06</v>
@@ -59578,7 +59578,7 @@
         <v>429</v>
       </c>
       <c r="M46">
-        <v>1.333430009357248e-07</v>
+        <v>-1.495544466774364e-07</v>
       </c>
       <c r="N46">
         <v>-1.832275181377856e-05</v>
@@ -60864,7 +60864,7 @@
         <v>429</v>
       </c>
       <c r="M47">
-        <v>1.568330012118191e-08</v>
+        <v>-2.022832624909114e-08</v>
       </c>
       <c r="N47">
         <v>-4.240722534950682e-07</v>
@@ -62150,7 +62150,7 @@
         <v>429</v>
       </c>
       <c r="M48">
-        <v>1.907502066644065e-08</v>
+        <v>-3.334276728315682e-08</v>
       </c>
       <c r="N48">
         <v>-1.161330384110482e-06</v>
@@ -63436,7 +63436,7 @@
         <v>429</v>
       </c>
       <c r="M49">
-        <v>3.111797494457857e-08</v>
+        <v>-5.43227044950157e-08</v>
       </c>
       <c r="N49">
         <v>-3.197496754349339e-06</v>
@@ -64722,7 +64722,7 @@
         <v>429</v>
       </c>
       <c r="M50">
-        <v>5.109030208434861e-08</v>
+        <v>-8.66071982240104e-08</v>
       </c>
       <c r="N50">
         <v>-9.033742974389426e-06</v>
@@ -66008,7 +66008,7 @@
         <v>429</v>
       </c>
       <c r="M51">
-        <v>8.592346788153226e-08</v>
+        <v>-1.332532769123699e-07</v>
       </c>
       <c r="N51">
         <v>-2.724124306004336e-05</v>
@@ -67294,7 +67294,7 @@
         <v>429</v>
       </c>
       <c r="M52">
-        <v>1.631116902760561e-07</v>
+        <v>-1.989150145931248e-07</v>
       </c>
       <c r="N52">
         <v>-9.498691992004661e-05</v>
@@ -68580,7 +68580,7 @@
         <v>429</v>
       </c>
       <c r="M53">
-        <v>2.409144667440583e-08</v>
+        <v>-4.182415918998704e-08</v>
       </c>
       <c r="N53">
         <v>-2.260779857835749e-06</v>
@@ -69866,7 +69866,7 @@
         <v>429</v>
       </c>
       <c r="M54">
-        <v>3.994430651958726e-08</v>
+        <v>-7.477617508269783e-08</v>
       </c>
       <c r="N54">
         <v>-6.266832176877293e-06</v>
@@ -71152,7 +71152,7 @@
         <v>429</v>
       </c>
       <c r="M55">
-        <v>6.614432614385788e-08</v>
+        <v>-1.298622999299873e-07</v>
       </c>
       <c r="N55">
         <v>-1.748180175011698e-05</v>
@@ -72438,7 +72438,7 @@
         <v>429</v>
       </c>
       <c r="M56">
-        <v>1.111869220075403e-07</v>
+        <v>-2.153293979231852e-07</v>
       </c>
       <c r="N56">
         <v>-4.971548846057243e-05</v>
@@ -73724,7 +73724,7 @@
         <v>429</v>
       </c>
       <c r="M57">
-        <v>1.975395365667328e-07</v>
+        <v>-3.332551603116484e-07</v>
       </c>
       <c r="N57">
         <v>-0.0001488946369847833</v>
@@ -75010,7 +75010,7 @@
         <v>429</v>
       </c>
       <c r="M58">
-        <v>5.42980308836153e-07</v>
+        <v>-4.825946137839906e-07</v>
       </c>
       <c r="N58">
         <v>-0.0005100963001190656</v>
